--- a/excel2json/excel/LevelConfig.xlsx
+++ b/excel2json/excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>关卡</t>
   </si>
@@ -40,7 +40,19 @@
     <t>房间数量</t>
   </si>
   <si>
-    <t>*Id#int</t>
+    <t>生成比例</t>
+  </si>
+  <si>
+    <t>墙预制体</t>
+  </si>
+  <si>
+    <t>通路预制体</t>
+  </si>
+  <si>
+    <t>地面预制体</t>
+  </si>
+  <si>
+    <t>*id#int</t>
   </si>
   <si>
     <t>width#int</t>
@@ -62,6 +74,45 @@
   </si>
   <si>
     <t>maxRoomCnt#int</t>
+  </si>
+  <si>
+    <t>mapCellMul#int</t>
+  </si>
+  <si>
+    <t>wallPf</t>
+  </si>
+  <si>
+    <t>pathPf</t>
+  </si>
+  <si>
+    <t>floorPf</t>
+  </si>
+  <si>
+    <t>lv1_wall</t>
+  </si>
+  <si>
+    <t>lv1_path</t>
+  </si>
+  <si>
+    <t>lv1_floor</t>
+  </si>
+  <si>
+    <t>lv2_wall</t>
+  </si>
+  <si>
+    <t>lv2_path</t>
+  </si>
+  <si>
+    <t>lv2_floor</t>
+  </si>
+  <si>
+    <t>lv3_wall</t>
+  </si>
+  <si>
+    <t>lv3_path</t>
+  </si>
+  <si>
+    <t>lv3_floor</t>
   </si>
 </sst>
 </file>
@@ -69,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,9 +134,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,135 +233,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +505,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -491,17 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,18 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +583,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,24 +1080,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="23.375" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,46 +1126,169 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/LevelConfig.xlsx
+++ b/excel2json/excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>关卡</t>
   </si>
@@ -52,6 +52,12 @@
     <t>地面预制体</t>
   </si>
   <si>
+    <t>Boss预制体</t>
+  </si>
+  <si>
+    <t>敌人预制体</t>
+  </si>
+  <si>
     <t>*id#int</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
     <t>floorPf</t>
   </si>
   <si>
+    <t>bossPf</t>
+  </si>
+  <si>
+    <t>enemyPf</t>
+  </si>
+  <si>
     <t>lv1_wall</t>
   </si>
   <si>
@@ -97,6 +109,12 @@
     <t>lv1_floor</t>
   </si>
   <si>
+    <t>redDragon</t>
+  </si>
+  <si>
+    <t>goblin</t>
+  </si>
+  <si>
     <t>lv2_wall</t>
   </si>
   <si>
@@ -106,6 +124,12 @@
     <t>lv2_floor</t>
   </si>
   <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
     <t>lv3_wall</t>
   </si>
   <si>
@@ -113,6 +137,12 @@
   </si>
   <si>
     <t>lv3_floor</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>wolf</t>
   </si>
 </sst>
 </file>
@@ -120,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,6 +165,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +180,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +240,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,51 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -233,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,29 +303,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +317,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,169 +431,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +508,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,8 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,32 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1099,9 +1129,10 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,46 +1169,58 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1188,10 +1231,10 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1206,16 +1249,22 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1226,10 +1275,10 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1244,16 +1293,22 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1264,10 +1319,10 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1282,13 +1337,19 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/LevelConfig.xlsx
+++ b/excel2json/excel/LevelConfig.xlsx
@@ -152,8 +152,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,6 +164,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -171,18 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,30 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,45 +271,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,65 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,6 +536,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -608,6 +573,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1231,10 +1231,10 @@
         <v>100</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1275,10 +1275,10 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1319,10 +1319,10 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>6</v>
